--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T23:21:29+00:00</t>
+    <t>2023-03-16T13:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:36:07+00:00</t>
+    <t>2023-03-16T17:14:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:14:39+00:00</t>
+    <t>2023-03-17T08:38:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:38:54+00:00</t>
+    <t>2023-03-17T08:44:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:44:23+00:00</t>
+    <t>2023-03-17T08:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:50:52+00:00</t>
+    <t>2023-03-17T08:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:53:22+00:00</t>
+    <t>2023-03-17T08:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:58:25+00:00</t>
+    <t>2023-03-17T09:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:01:20+00:00</t>
+    <t>2023-03-17T11:12:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T11:07:24+00:00</t>
+    <t>2023-09-14T12:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir-testing/1.0.0/all-profiles.xlsx
+++ b/fhir-testing/1.0.0/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T12:24:22+00:00</t>
+    <t>2023-09-18T13:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
